--- a/Code/Results/Cases/Case_8_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_21/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.003641768335105</v>
+        <v>1.002480188242536</v>
       </c>
       <c r="D2">
-        <v>1.022018761351129</v>
+        <v>1.020957898301884</v>
       </c>
       <c r="E2">
-        <v>1.018203141457293</v>
+        <v>1.017280286260586</v>
       </c>
       <c r="F2">
-        <v>1.026365070813329</v>
+        <v>1.025617649447261</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.043800419895854</v>
+        <v>1.0433769402282</v>
       </c>
       <c r="J2">
-        <v>1.02571409767518</v>
+        <v>1.024586969521919</v>
       </c>
       <c r="K2">
-        <v>1.033179631461318</v>
+        <v>1.032132778058217</v>
       </c>
       <c r="L2">
-        <v>1.029414571378975</v>
+        <v>1.028504016225663</v>
       </c>
       <c r="M2">
-        <v>1.037468922805843</v>
+        <v>1.036731263562509</v>
       </c>
       <c r="N2">
-        <v>1.027170729344931</v>
+        <v>1.023382950505562</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.038226525909272</v>
+        <v>1.037642715989177</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.034531097240645</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.033799696148163</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020636069494281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007498301192524</v>
+        <v>1.006003332357784</v>
       </c>
       <c r="D3">
-        <v>1.024478538212688</v>
+        <v>1.023116846645955</v>
       </c>
       <c r="E3">
-        <v>1.021250654986223</v>
+        <v>1.020057139219768</v>
       </c>
       <c r="F3">
-        <v>1.029359301405217</v>
+        <v>1.028394419421787</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.044382486175177</v>
+        <v>1.043832720822649</v>
       </c>
       <c r="J3">
-        <v>1.027786621361523</v>
+        <v>1.026331667682065</v>
       </c>
       <c r="K3">
-        <v>1.034807506244547</v>
+        <v>1.03346224628855</v>
       </c>
       <c r="L3">
-        <v>1.031618662492788</v>
+        <v>1.030439659394689</v>
       </c>
       <c r="M3">
-        <v>1.039629815798005</v>
+        <v>1.038676435000835</v>
       </c>
       <c r="N3">
-        <v>1.029246196252629</v>
+        <v>1.024361186910136</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.039936731203961</v>
+        <v>1.039182193238989</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.035679479649817</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.034736798498064</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02089387954749</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009949913046103</v>
+        <v>1.008245148642876</v>
       </c>
       <c r="D4">
-        <v>1.026044932567723</v>
+        <v>1.024493226219982</v>
       </c>
       <c r="E4">
-        <v>1.023194137027485</v>
+        <v>1.021830100722191</v>
       </c>
       <c r="F4">
-        <v>1.031271062188213</v>
+        <v>1.030169294424216</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.04474229122738</v>
+        <v>1.04411263669037</v>
       </c>
       <c r="J4">
-        <v>1.029102478668593</v>
+        <v>1.027440268651748</v>
       </c>
       <c r="K4">
-        <v>1.035838860657924</v>
+        <v>1.034304760631633</v>
       </c>
       <c r="L4">
-        <v>1.03302046211703</v>
+        <v>1.031672005885126</v>
       </c>
       <c r="M4">
-        <v>1.041006172183505</v>
+        <v>1.039916743266969</v>
       </c>
       <c r="N4">
-        <v>1.030563922228007</v>
+        <v>1.024982765404554</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.04102602502948</v>
+        <v>1.04016381519952</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.036409643481374</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.035333518047225</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021054796352013</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010973460744661</v>
+        <v>1.009181453536854</v>
       </c>
       <c r="D5">
-        <v>1.026701648606251</v>
+        <v>1.025070852867392</v>
       </c>
       <c r="E5">
-        <v>1.024007167085289</v>
+        <v>1.02257217732622</v>
       </c>
       <c r="F5">
-        <v>1.032070860723633</v>
+        <v>1.030912161201324</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.04489145587555</v>
+        <v>1.04422851092329</v>
       </c>
       <c r="J5">
-        <v>1.029652769849366</v>
+        <v>1.027904162959652</v>
       </c>
       <c r="K5">
-        <v>1.036271347697735</v>
+        <v>1.034658567624291</v>
       </c>
       <c r="L5">
-        <v>1.033606670575808</v>
+        <v>1.032187632487538</v>
       </c>
       <c r="M5">
-        <v>1.041581739045848</v>
+        <v>1.040435669657868</v>
       </c>
       <c r="N5">
-        <v>1.031114994885376</v>
+        <v>1.02524286413725</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.04148154713469</v>
+        <v>1.040574510719491</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.036722653466583</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.03559161240073</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021122222435471</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011148464106479</v>
+        <v>1.009341398853459</v>
       </c>
       <c r="D6">
-        <v>1.026816569666066</v>
+        <v>1.025172217442108</v>
       </c>
       <c r="E6">
-        <v>1.024146479407548</v>
+        <v>1.022699238821891</v>
       </c>
       <c r="F6">
-        <v>1.032207327395418</v>
+        <v>1.031038799286188</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.044918564613539</v>
+        <v>1.044249899328598</v>
       </c>
       <c r="J6">
-        <v>1.02974846879782</v>
+        <v>1.027984944275866</v>
       </c>
       <c r="K6">
-        <v>1.03634860799234</v>
+        <v>1.034722338722721</v>
       </c>
       <c r="L6">
-        <v>1.033707916884375</v>
+        <v>1.03227669008801</v>
       </c>
       <c r="M6">
-        <v>1.04168057919178</v>
+        <v>1.040524729921319</v>
       </c>
       <c r="N6">
-        <v>1.031210829737313</v>
+        <v>1.025288156980808</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.041559772372593</v>
+        <v>1.040644995935965</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.036786066286874</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.035646364843751</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021134888301102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009973671561144</v>
+        <v>1.00828841755334</v>
       </c>
       <c r="D7">
-        <v>1.026067140033591</v>
+        <v>1.024529244544459</v>
       </c>
       <c r="E7">
-        <v>1.023213599203813</v>
+        <v>1.021866230020524</v>
       </c>
       <c r="F7">
-        <v>1.031288562538629</v>
+        <v>1.030199992240365</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.044750467526733</v>
+        <v>1.044127142430886</v>
       </c>
       <c r="J7">
-        <v>1.029119646842559</v>
+        <v>1.027476441071907</v>
       </c>
       <c r="K7">
-        <v>1.035857917247154</v>
+        <v>1.034337464328373</v>
       </c>
       <c r="L7">
-        <v>1.033036792161041</v>
+        <v>1.031704806504703</v>
       </c>
       <c r="M7">
-        <v>1.041020597029528</v>
+        <v>1.03994421301274</v>
       </c>
       <c r="N7">
-        <v>1.030581114782748</v>
+        <v>1.025055485806508</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.041037441319536</v>
+        <v>1.040185555671322</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.036443320451242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.035378862884385</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021064308344849</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.004966932018956</v>
+        <v>1.003758874985734</v>
       </c>
       <c r="D8">
-        <v>1.022871991923249</v>
+        <v>1.021757259959115</v>
       </c>
       <c r="E8">
-        <v>1.019249826120874</v>
+        <v>1.018292024296972</v>
       </c>
       <c r="F8">
-        <v>1.027390929089439</v>
+        <v>1.026614772580952</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.044008324937328</v>
+        <v>1.043564024941115</v>
       </c>
       <c r="J8">
-        <v>1.026432028712174</v>
+        <v>1.025258599329597</v>
       </c>
       <c r="K8">
-        <v>1.033750809928932</v>
+        <v>1.032650364706934</v>
       </c>
       <c r="L8">
-        <v>1.030175209764915</v>
+        <v>1.029229790496042</v>
       </c>
       <c r="M8">
-        <v>1.038212227489478</v>
+        <v>1.037445905373475</v>
       </c>
       <c r="N8">
-        <v>1.027889679926345</v>
+        <v>1.023918520786306</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.038814803350542</v>
+        <v>1.038208309096893</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.03495799727257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.034190985918396</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020744335060078</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9957778135093304</v>
+        <v>0.995391984042002</v>
       </c>
       <c r="D9">
-        <v>1.017020399846616</v>
+        <v>1.016640573683795</v>
       </c>
       <c r="E9">
-        <v>1.012024455205142</v>
+        <v>1.011733416422359</v>
       </c>
       <c r="F9">
-        <v>1.020306697813912</v>
+        <v>1.020066880528735</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.042559614740282</v>
+        <v>1.042423491003003</v>
       </c>
       <c r="J9">
-        <v>1.021480554151324</v>
+        <v>1.021108519217729</v>
       </c>
       <c r="K9">
-        <v>1.029843239312761</v>
+        <v>1.029469317598475</v>
       </c>
       <c r="L9">
-        <v>1.024925410596499</v>
+        <v>1.024638952890403</v>
       </c>
       <c r="M9">
-        <v>1.033078685685531</v>
+        <v>1.032842565140888</v>
       </c>
       <c r="N9">
-        <v>1.022931173703676</v>
+        <v>1.021610897967733</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.03475192810038</v>
+        <v>1.034565052989973</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.032191860937404</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.031938277401914</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020113228789548</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9894790887461882</v>
+        <v>0.9897720471643444</v>
       </c>
       <c r="D10">
-        <v>1.01303816532622</v>
+        <v>1.013243502662714</v>
       </c>
       <c r="E10">
-        <v>1.007150741588794</v>
+        <v>1.007412836185974</v>
       </c>
       <c r="F10">
-        <v>1.015590732518622</v>
+        <v>1.015795612154397</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.04153042322995</v>
+        <v>1.041641513612066</v>
       </c>
       <c r="J10">
-        <v>1.018116438272567</v>
+        <v>1.018397424532564</v>
       </c>
       <c r="K10">
-        <v>1.027175935483007</v>
+        <v>1.027377688892961</v>
       </c>
       <c r="L10">
-        <v>1.021392076397062</v>
+        <v>1.021649527137383</v>
       </c>
       <c r="M10">
-        <v>1.029684083809669</v>
+        <v>1.029885410726667</v>
       </c>
       <c r="N10">
-        <v>1.019562280394502</v>
+        <v>1.020325089929275</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.032117140047589</v>
+        <v>1.032276468581148</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.030322806969223</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.030477953524095</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019699126277215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,105 +997,123 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9873672105155736</v>
+        <v>0.9880129840374522</v>
       </c>
       <c r="D11">
-        <v>1.011778819253531</v>
+        <v>1.012269596218137</v>
       </c>
       <c r="E11">
-        <v>1.005868768097782</v>
+        <v>1.006422464569392</v>
       </c>
       <c r="F11">
-        <v>1.014758456100779</v>
+        <v>1.015196355667241</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.041284756341448</v>
+        <v>1.041517771239378</v>
       </c>
       <c r="J11">
-        <v>1.017275138121206</v>
+        <v>1.017893081549421</v>
       </c>
       <c r="K11">
-        <v>1.026481971147015</v>
+        <v>1.02696377688618</v>
       </c>
       <c r="L11">
-        <v>1.020680850267398</v>
+        <v>1.021224270529219</v>
       </c>
       <c r="M11">
-        <v>1.029407315090308</v>
+        <v>1.029837270488131</v>
       </c>
       <c r="N11">
-        <v>1.018719785500427</v>
+        <v>1.020489167642674</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.032337429409613</v>
+        <v>1.032677519126256</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.029865208511209</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.030221581281006</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019665749615123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9868325783413741</v>
+        <v>0.9875735305036949</v>
       </c>
       <c r="D12">
-        <v>1.01149326474018</v>
+        <v>1.012058910069127</v>
       </c>
       <c r="E12">
-        <v>1.005713096041879</v>
+        <v>1.006344647343681</v>
       </c>
       <c r="F12">
-        <v>1.014903656759693</v>
+        <v>1.015403696658924</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.04127348514428</v>
+        <v>1.04153735244377</v>
       </c>
       <c r="J12">
-        <v>1.017204853936337</v>
+        <v>1.017913273352128</v>
       </c>
       <c r="K12">
-        <v>1.026403535514149</v>
+        <v>1.026958670498655</v>
       </c>
       <c r="L12">
-        <v>1.020731654591725</v>
+        <v>1.02135129509787</v>
       </c>
       <c r="M12">
-        <v>1.029750789972094</v>
+        <v>1.030241618941831</v>
       </c>
       <c r="N12">
-        <v>1.018649401503954</v>
+        <v>1.020694455162843</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.032937493455838</v>
+        <v>1.033325600458051</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.029809751265806</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.030217970933216</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019696836259048</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9874876638046719</v>
+        <v>0.9881074938153543</v>
       </c>
       <c r="D13">
-        <v>1.011952098662143</v>
+        <v>1.012416309542613</v>
       </c>
       <c r="E13">
-        <v>1.00642483499611</v>
+        <v>1.006954809774588</v>
       </c>
       <c r="F13">
-        <v>1.015831016505891</v>
+        <v>1.016250072241154</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.041452967516587</v>
+        <v>1.041671267385062</v>
       </c>
       <c r="J13">
-        <v>1.017736576524638</v>
+        <v>1.01832933838085</v>
       </c>
       <c r="K13">
-        <v>1.026810565153481</v>
+        <v>1.027266188385959</v>
       </c>
       <c r="L13">
-        <v>1.021386347818841</v>
+        <v>1.021906378102429</v>
       </c>
       <c r="M13">
-        <v>1.030618039263224</v>
+        <v>1.031029419138178</v>
       </c>
       <c r="N13">
-        <v>1.01918187919932</v>
+        <v>1.020884756263237</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.033901273020524</v>
+        <v>1.034226475743349</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.030095028765898</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.030432642477994</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019780395984749</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.988483502301972</v>
+        <v>0.988924631038564</v>
       </c>
       <c r="D14">
-        <v>1.012610839187557</v>
+        <v>1.01292749203592</v>
       </c>
       <c r="E14">
-        <v>1.007312669491322</v>
+        <v>1.007694163994287</v>
       </c>
       <c r="F14">
-        <v>1.016830739603082</v>
+        <v>1.017131357160199</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.041664941531857</v>
+        <v>1.041818459416198</v>
       </c>
       <c r="J14">
-        <v>1.0183797064612</v>
+        <v>1.018801852841015</v>
       </c>
       <c r="K14">
-        <v>1.027315451009876</v>
+        <v>1.027626319081871</v>
       </c>
       <c r="L14">
-        <v>1.022114774486056</v>
+        <v>1.022489204340211</v>
       </c>
       <c r="M14">
-        <v>1.031458644905551</v>
+        <v>1.031753829613807</v>
       </c>
       <c r="N14">
-        <v>1.01982592245416</v>
+        <v>1.021013539271024</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.034739776415483</v>
+        <v>1.034973093216467</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.030453438138199</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.030688836827402</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019863894850284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9889910142798159</v>
+        <v>0.989343972456735</v>
       </c>
       <c r="D15">
-        <v>1.012939574283451</v>
+        <v>1.013183904875161</v>
       </c>
       <c r="E15">
-        <v>1.007728323011373</v>
+        <v>1.008036949306893</v>
       </c>
       <c r="F15">
-        <v>1.017262957363009</v>
+        <v>1.017505390232993</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.041760998361366</v>
+        <v>1.041883141501049</v>
       </c>
       <c r="J15">
-        <v>1.018675152124358</v>
+        <v>1.01901305600443</v>
       </c>
       <c r="K15">
-        <v>1.027550930649832</v>
+        <v>1.027790831542829</v>
       </c>
       <c r="L15">
-        <v>1.022434825391575</v>
+        <v>1.022737781149311</v>
       </c>
       <c r="M15">
-        <v>1.031796339359554</v>
+        <v>1.032034425318265</v>
       </c>
       <c r="N15">
-        <v>1.020121787684047</v>
+        <v>1.021051402197726</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.035044356905547</v>
+        <v>1.035232537343392</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.030625840624197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.030811631426032</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.01989844635759</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9915261108526945</v>
+        <v>0.9914722408080828</v>
       </c>
       <c r="D16">
-        <v>1.014533007031973</v>
+        <v>1.01444438748476</v>
       </c>
       <c r="E16">
-        <v>1.009653922701558</v>
+        <v>1.00962830266447</v>
       </c>
       <c r="F16">
-        <v>1.019110724684147</v>
+        <v>1.019085821211772</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.042174670830265</v>
+        <v>1.042154431901837</v>
       </c>
       <c r="J16">
-        <v>1.020002139771728</v>
+        <v>1.019950452383746</v>
       </c>
       <c r="K16">
-        <v>1.028608807281687</v>
+        <v>1.028521724657308</v>
       </c>
       <c r="L16">
-        <v>1.023814860867893</v>
+        <v>1.023789690703869</v>
       </c>
       <c r="M16">
-        <v>1.033107603679132</v>
+        <v>1.033083127071368</v>
       </c>
       <c r="N16">
-        <v>1.021450659806084</v>
+        <v>1.021170465328342</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.036041923695475</v>
+        <v>1.036022577105797</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.031376992167622</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.031331892750346</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02003207759353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9929520442629645</v>
+        <v>0.9927009903279064</v>
       </c>
       <c r="D17">
-        <v>1.015413129477756</v>
+        <v>1.015162007733865</v>
       </c>
       <c r="E17">
-        <v>1.010668488349498</v>
+        <v>1.010481680467645</v>
       </c>
       <c r="F17">
-        <v>1.020001086249769</v>
+        <v>1.019847014195909</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.0423790454567</v>
+        <v>1.042290189970689</v>
       </c>
       <c r="J17">
-        <v>1.02068378548019</v>
+        <v>1.020442577450754</v>
       </c>
       <c r="K17">
-        <v>1.029156202056861</v>
+        <v>1.028909314006051</v>
       </c>
       <c r="L17">
-        <v>1.02449201078385</v>
+        <v>1.024308390372812</v>
       </c>
       <c r="M17">
-        <v>1.033667282583542</v>
+        <v>1.03351577771729</v>
       </c>
       <c r="N17">
-        <v>1.022133273529638</v>
+        <v>1.021257511493309</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.036354808632561</v>
+        <v>1.036235045456308</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.031766629168047</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.03160878990651</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020094605905219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9935395681673833</v>
+        <v>0.9932258021829279</v>
       </c>
       <c r="D18">
-        <v>1.01574322559512</v>
+        <v>1.015440411497678</v>
       </c>
       <c r="E18">
-        <v>1.010957736300491</v>
+        <v>1.010720112263043</v>
       </c>
       <c r="F18">
-        <v>1.020089274762781</v>
+        <v>1.019894252159526</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.042415812867153</v>
+        <v>1.04230607960529</v>
       </c>
       <c r="J18">
-        <v>1.02084888436126</v>
+        <v>1.020547196160521</v>
       </c>
       <c r="K18">
-        <v>1.02929563325138</v>
+        <v>1.028997841521883</v>
       </c>
       <c r="L18">
-        <v>1.024589968103576</v>
+        <v>1.024356333140902</v>
       </c>
       <c r="M18">
-        <v>1.033570022769512</v>
+        <v>1.033378198959123</v>
       </c>
       <c r="N18">
-        <v>1.022298606870057</v>
+        <v>1.021233407967574</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.036039244930513</v>
+        <v>1.0358875781522</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.03185350641405</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.031658537816322</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020089957133517</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9933848297791273</v>
+        <v>0.9931100735576945</v>
       </c>
       <c r="D19">
-        <v>1.015599406528613</v>
+        <v>1.015330399962137</v>
       </c>
       <c r="E19">
-        <v>1.010598990674168</v>
+        <v>1.010393720241534</v>
       </c>
       <c r="F19">
-        <v>1.019450471317692</v>
+        <v>1.019281085578425</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.042314394094088</v>
+        <v>1.042220303971499</v>
       </c>
       <c r="J19">
-        <v>1.020563997059219</v>
+        <v>1.020299759092915</v>
       </c>
       <c r="K19">
-        <v>1.029091069584063</v>
+        <v>1.028826502246126</v>
       </c>
       <c r="L19">
-        <v>1.024173669915859</v>
+        <v>1.023971829978604</v>
       </c>
       <c r="M19">
-        <v>1.032878913033024</v>
+        <v>1.03271229511972</v>
       </c>
       <c r="N19">
-        <v>1.022013314995369</v>
+        <v>1.021071367524021</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.035165642852799</v>
+        <v>1.035033861799962</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.031715306084545</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.031544456433827</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020028717441811</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9911393456472003</v>
+        <v>0.9911853886862332</v>
       </c>
       <c r="D20">
-        <v>1.014103797039191</v>
+        <v>1.014105525713192</v>
       </c>
       <c r="E20">
-        <v>1.008436780605883</v>
+        <v>1.008495142725043</v>
       </c>
       <c r="F20">
-        <v>1.016832955909757</v>
+        <v>1.016874653476441</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.041817305787307</v>
+        <v>1.041840591461517</v>
       </c>
       <c r="J20">
-        <v>1.019016156016488</v>
+        <v>1.019060379065688</v>
       </c>
       <c r="K20">
-        <v>1.02790310025321</v>
+        <v>1.027904799612185</v>
       </c>
       <c r="L20">
-        <v>1.022332884085504</v>
+        <v>1.022390242133239</v>
       </c>
       <c r="M20">
-        <v>1.030586137883809</v>
+        <v>1.030627133261637</v>
       </c>
       <c r="N20">
-        <v>1.020463275840818</v>
+        <v>1.020500283464888</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.032820395892065</v>
+        <v>1.032852839703189</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.030879304243817</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.030897108979142</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019802929080182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9862813745794045</v>
+        <v>0.9871776382989635</v>
       </c>
       <c r="D21">
-        <v>1.011024282844693</v>
+        <v>1.011720038034019</v>
       </c>
       <c r="E21">
-        <v>1.004625081570803</v>
+        <v>1.005389614865034</v>
       </c>
       <c r="F21">
-        <v>1.013069513305558</v>
+        <v>1.013675790441047</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.040984271826951</v>
+        <v>1.041309275267214</v>
       </c>
       <c r="J21">
-        <v>1.01636407826586</v>
+        <v>1.017221414625516</v>
       </c>
       <c r="K21">
-        <v>1.025799764111558</v>
+        <v>1.02648272136441</v>
       </c>
       <c r="L21">
-        <v>1.019519356976214</v>
+        <v>1.020269593733255</v>
       </c>
       <c r="M21">
-        <v>1.027807439226719</v>
+        <v>1.028402621570558</v>
       </c>
       <c r="N21">
-        <v>1.017807431835587</v>
+        <v>1.02028460427218</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.030580043941633</v>
+        <v>1.031051097303339</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.029395399952972</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.029895208381255</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019535443826776</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9831959331450305</v>
+        <v>0.9846215154669108</v>
       </c>
       <c r="D22">
-        <v>1.009070531615974</v>
+        <v>1.01020294249067</v>
       </c>
       <c r="E22">
-        <v>1.002233049337692</v>
+        <v>1.003438119039598</v>
       </c>
       <c r="F22">
-        <v>1.010737579393448</v>
+        <v>1.011695936023873</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.040447048334785</v>
+        <v>1.04096228106127</v>
       </c>
       <c r="J22">
-        <v>1.01469181134612</v>
+        <v>1.016051846123127</v>
       </c>
       <c r="K22">
-        <v>1.024464415929551</v>
+        <v>1.025574951041688</v>
       </c>
       <c r="L22">
-        <v>1.017760398502745</v>
+        <v>1.018941772427606</v>
       </c>
       <c r="M22">
-        <v>1.026099282210561</v>
+        <v>1.027039201123455</v>
       </c>
       <c r="N22">
-        <v>1.016132790105009</v>
+        <v>1.020104027206142</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.029228131927699</v>
+        <v>1.029972026204148</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.028437633132479</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.029238463435415</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019363235643032</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9848280358024292</v>
+        <v>0.9859391845171257</v>
       </c>
       <c r="D23">
-        <v>1.010097375594876</v>
+        <v>1.010972001078898</v>
       </c>
       <c r="E23">
-        <v>1.00349670888793</v>
+        <v>1.004438819812872</v>
       </c>
       <c r="F23">
-        <v>1.011970746872448</v>
+        <v>1.012719268271883</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.040728096726788</v>
+        <v>1.041130382235205</v>
       </c>
       <c r="J23">
-        <v>1.015572499105824</v>
+        <v>1.016634064265284</v>
       </c>
       <c r="K23">
-        <v>1.025163179715327</v>
+        <v>1.026021338242157</v>
       </c>
       <c r="L23">
-        <v>1.0186879985591</v>
+        <v>1.019612066925169</v>
       </c>
       <c r="M23">
-        <v>1.027001325664512</v>
+        <v>1.027735820054526</v>
       </c>
       <c r="N23">
-        <v>1.017014728542348</v>
+        <v>1.020108465040121</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.029942049870846</v>
+        <v>1.03052336137204</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.028921987882676</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.029543435986902</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019443452262342</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9911398911875187</v>
+        <v>0.9911876541319596</v>
       </c>
       <c r="D24">
-        <v>1.014088539569315</v>
+        <v>1.014091632035942</v>
       </c>
       <c r="E24">
-        <v>1.008402661296406</v>
+        <v>1.008462463513806</v>
       </c>
       <c r="F24">
-        <v>1.016761439129053</v>
+        <v>1.016804287301964</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.041801113376262</v>
+        <v>1.041825202629441</v>
       </c>
       <c r="J24">
-        <v>1.018983321882447</v>
+        <v>1.019029199518451</v>
       </c>
       <c r="K24">
-        <v>1.027872680820407</v>
+        <v>1.027875720910077</v>
       </c>
       <c r="L24">
-        <v>1.022283806304139</v>
+        <v>1.022342580909789</v>
       </c>
       <c r="M24">
-        <v>1.030500462903931</v>
+        <v>1.030542590307878</v>
       </c>
       <c r="N24">
-        <v>1.020430395078541</v>
+        <v>1.020474809510351</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.032711418232422</v>
+        <v>1.032744759612737</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.030830206084783</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.03084628069867</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019791474902126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9982132484422163</v>
+        <v>0.9975781911450766</v>
       </c>
       <c r="D25">
-        <v>1.018578920515369</v>
+        <v>1.017982232503095</v>
       </c>
       <c r="E25">
-        <v>1.01393441671343</v>
+        <v>1.013440328401261</v>
       </c>
       <c r="F25">
-        <v>1.022174617554115</v>
+        <v>1.021771622173071</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.042959788653944</v>
+        <v>1.042731998207611</v>
       </c>
       <c r="J25">
-        <v>1.02280089388779</v>
+        <v>1.022187334603187</v>
       </c>
       <c r="K25">
-        <v>1.030895509727884</v>
+        <v>1.030307666587798</v>
       </c>
       <c r="L25">
-        <v>1.026320202432914</v>
+        <v>1.02583352283663</v>
       </c>
       <c r="M25">
-        <v>1.034438184295218</v>
+        <v>1.034041107943392</v>
       </c>
       <c r="N25">
-        <v>1.024253388474012</v>
+        <v>1.022149365382009</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.035827887950184</v>
+        <v>1.035513626516735</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.032964646244283</v>
+        <v>1.032562621449631</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020281784212192</v>
       </c>
     </row>
   </sheetData>
